--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>User</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Suraj</t>
   </si>
   <si>
@@ -41,6 +38,18 @@
   </si>
   <si>
     <t>Anup</t>
+  </si>
+  <si>
+    <t>Testase</t>
+  </si>
+  <si>
+    <t>Testcase1</t>
+  </si>
+  <si>
+    <t>Testcase2</t>
+  </si>
+  <si>
+    <t>Testcase3</t>
   </si>
 </sst>
 </file>
@@ -56,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,19 +78,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -90,8 +108,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,48 +417,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
